--- a/2022级/2022级辐射防护与核安全班.xlsx
+++ b/2022级/2022级辐射防护与核安全班.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
   <si>
-    <t>2023年核学院+年级+班级名称B类基本素质记实部分评分表</t>
+    <t>2023年核学院2022级年级辐射防护班级名称B类基本素质记实部分评分表</t>
   </si>
   <si>
     <t>序号</t>
@@ -185,6 +185,18 @@
     <t>王渤为</t>
   </si>
   <si>
+    <t>李海燕</t>
+  </si>
+  <si>
+    <t>马懿行</t>
+  </si>
+  <si>
+    <t>许嘉琪</t>
+  </si>
+  <si>
+    <t>王宇航</t>
+  </si>
+  <si>
     <t>思想</t>
   </si>
   <si>
@@ -217,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -251,75 +263,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -329,51 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +291,119 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -416,7 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,37 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +500,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,49 +578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,6 +662,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -674,13 +721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,192 +759,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,11 +1307,11 @@
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.68888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.6962962962963" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.06666666666667" style="10" customWidth="1"/>
     <col min="2" max="2" width="9.57037037037037" style="10" customWidth="1"/>
@@ -1317,7 +1329,7 @@
     <col min="16" max="16" width="8" style="10" customWidth="1"/>
     <col min="17" max="17" width="10.1851851851852" style="10" customWidth="1"/>
     <col min="18" max="18" width="9.81481481481481" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9.68888888888889" style="10"/>
+    <col min="19" max="16384" width="9.6962962962963" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" ht="39" customHeight="1" spans="1:18">
@@ -3320,80 +3332,168 @@
     </row>
     <row r="39" s="10" customFormat="1" spans="1:18">
       <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>8.5</v>
+      </c>
       <c r="H39" s="14"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="16">
+        <v>24</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <v>24</v>
+      </c>
       <c r="L39" s="14"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="M39" s="16">
+        <v>11.754</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>11.754</v>
+      </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
     </row>
     <row r="40" s="10" customFormat="1" spans="1:18">
       <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="14"/>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="14"/>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
       <c r="L40" s="14"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="M40" s="16">
+        <v>0</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
     </row>
     <row r="41" s="10" customFormat="1" spans="1:18">
       <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="16">
+        <v>4.5</v>
+      </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="14"/>
+      <c r="E41" s="16">
+        <v>8</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>8</v>
+      </c>
       <c r="H41" s="14"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="14"/>
+      <c r="I41" s="16">
+        <v>17.5</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
+        <v>17.5</v>
+      </c>
       <c r="L41" s="14"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="M41" s="16">
+        <v>7.743</v>
+      </c>
+      <c r="N41" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="16">
+        <v>7.743</v>
+      </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
     </row>
     <row r="42" s="10" customFormat="1" spans="1:18">
       <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="14"/>
+      <c r="E42" s="16">
+        <v>7</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>7</v>
+      </c>
       <c r="H42" s="14"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="14"/>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
       <c r="L42" s="14"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="M42" s="16">
+        <v>2.2</v>
+      </c>
+      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <v>2.2</v>
+      </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
@@ -5724,46 +5824,46 @@
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="2"/>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
